--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3315298.160072919</v>
+        <v>3313046.080361712</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877436</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>32.97988876732279</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>10.93787135974292</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>114.2656173771021</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>16.61609021059913</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>398.2527805383303</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.1945264077451</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777569</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.539868031607</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991681</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444163</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766844</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>103.8784673763403</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>246.2025596887052</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>149.9095691544952</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>7.613741235232844</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>552.807938939214</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>552.807938939214</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>552.807938939214</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>141.8220341496064</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1722.044275313594</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1722.044275313594</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1722.044275313594</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796256</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796256</v>
+        <v>547.3108956025774</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7704558796256</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>510.7845510900181</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,13 +4589,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
@@ -4604,13 +4604,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>941.3375521384687</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C7" t="n">
-        <v>772.4013692105618</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D7" t="n">
-        <v>772.4013692105618</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E7" t="n">
-        <v>624.4882756281687</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>477.5983281302583</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>309.8954915049773</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.678304722835</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.327103036486</v>
+        <v>779.0537804657818</v>
       </c>
       <c r="X7" t="n">
-        <v>941.3375521384687</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="Y7" t="n">
-        <v>941.3375521384687</v>
+        <v>551.0642295677644</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,7 +4899,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168638</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362712</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400706</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908944</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908943</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908942</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908941</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057739</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915485</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.5813165460164</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>385.6451336181095</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>235.5284942057738</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,31 +6005,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.5507239167107</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888039</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888039</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888039</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908937</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1893.082977031345</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.398488825458</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.981318788497</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.99176789048</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.1991887469503</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6491,7 +6491,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6549,19 +6549,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194352</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63.36835372228754</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465691</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>136.2749052347488</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778555</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778556</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.939721005</v>
-      </c>
       <c r="N2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551207</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685488</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685506</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685511</v>
       </c>
-      <c r="H4" t="n">
-        <v>14216.75207685511</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.7520768551</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685509</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685505</v>
-      </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685507</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791144.8802593367</v>
+        <v>-791144.880259337</v>
       </c>
       <c r="C6" t="n">
-        <v>537599.8654682557</v>
+        <v>537599.8654682559</v>
       </c>
       <c r="D6" t="n">
-        <v>537599.8654682562</v>
+        <v>537599.8654682559</v>
       </c>
       <c r="E6" t="n">
-        <v>285680.1960128875</v>
+        <v>285645.4580874518</v>
       </c>
       <c r="F6" t="n">
-        <v>611092.6578202436</v>
+        <v>611057.9198948077</v>
       </c>
       <c r="G6" t="n">
-        <v>611092.6578202432</v>
+        <v>611057.9198948074</v>
       </c>
       <c r="H6" t="n">
-        <v>611092.6578202432</v>
+        <v>611057.9198948074</v>
       </c>
       <c r="I6" t="n">
-        <v>611092.657820243</v>
+        <v>611057.9198948077</v>
       </c>
       <c r="J6" t="n">
-        <v>393561.4554229659</v>
+        <v>393526.71749753</v>
       </c>
       <c r="K6" t="n">
-        <v>611092.6578202433</v>
+        <v>611057.9198948077</v>
       </c>
       <c r="L6" t="n">
-        <v>611092.6578202432</v>
+        <v>611057.9198948074</v>
       </c>
       <c r="M6" t="n">
-        <v>526037.6298847308</v>
+        <v>526002.8919592956</v>
       </c>
       <c r="N6" t="n">
-        <v>611092.657820243</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="O6" t="n">
-        <v>611092.6578202435</v>
+        <v>611057.9198948077</v>
       </c>
       <c r="P6" t="n">
-        <v>611092.6578202434</v>
+        <v>611057.9198948075</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747062</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>377.9418368861307</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.41454905009518</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>75.50340795433981</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>365.3142798616627</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>12.66894511512317</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1578940020929878</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.454344692378</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090759</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356961</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28099,13 +28099,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.565059276093962e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28141,13 +28141,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.065970300534649e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.065970300534649e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>616.9033572954385</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32248,7 +32248,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32552,25 +32552,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>485.5616452121051</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
